--- a/natmiOut/OldD7/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cd44</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>24.2097812526066</v>
+        <v>0.772687</v>
       </c>
       <c r="H2">
-        <v>24.2097812526066</v>
+        <v>2.318061</v>
       </c>
       <c r="I2">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J2">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N2">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P2">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q2">
-        <v>639.4396020840877</v>
+        <v>24.59262852629333</v>
       </c>
       <c r="R2">
-        <v>639.4396020840877</v>
+        <v>221.33365673664</v>
       </c>
       <c r="S2">
-        <v>0.0986924396970317</v>
+        <v>0.003138800266914764</v>
       </c>
       <c r="T2">
-        <v>0.0986924396970317</v>
+        <v>0.003138800266914765</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>24.2097812526066</v>
+        <v>0.772687</v>
       </c>
       <c r="H3">
-        <v>24.2097812526066</v>
+        <v>2.318061</v>
       </c>
       <c r="I3">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J3">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N3">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P3">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q3">
-        <v>2055.037274123511</v>
+        <v>66.03628687684835</v>
       </c>
       <c r="R3">
-        <v>2055.037274123511</v>
+        <v>594.3265818916351</v>
       </c>
       <c r="S3">
-        <v>0.317178732112554</v>
+        <v>0.008428326994550532</v>
       </c>
       <c r="T3">
-        <v>0.317178732112554</v>
+        <v>0.008428326994550534</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
@@ -658,49 +658,49 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>24.2097812526066</v>
+        <v>0.772687</v>
       </c>
       <c r="H4">
-        <v>24.2097812526066</v>
+        <v>2.318061</v>
       </c>
       <c r="I4">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J4">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N4">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P4">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q4">
-        <v>2728.299173240008</v>
+        <v>94.45930953433468</v>
       </c>
       <c r="R4">
-        <v>2728.299173240008</v>
+        <v>850.133785809012</v>
       </c>
       <c r="S4">
-        <v>0.4210913755620697</v>
+        <v>0.01205600717556326</v>
       </c>
       <c r="T4">
-        <v>0.4210913755620697</v>
+        <v>0.01205600717556326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>24.2097812526066</v>
+        <v>0.772687</v>
       </c>
       <c r="H5">
-        <v>24.2097812526066</v>
+        <v>2.318061</v>
       </c>
       <c r="I5">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="J5">
-        <v>0.9466362349363574</v>
+        <v>0.02743927362033742</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.3512921611543</v>
+        <v>38.69562533333333</v>
       </c>
       <c r="N5">
-        <v>29.3512921611543</v>
+        <v>116.086876</v>
       </c>
       <c r="O5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="P5">
-        <v>0.115856211200362</v>
+        <v>0.1390758092255191</v>
       </c>
       <c r="Q5">
-        <v>710.5883627028925</v>
+        <v>29.89960665193733</v>
       </c>
       <c r="R5">
-        <v>710.5883627028925</v>
+        <v>269.096459867436</v>
       </c>
       <c r="S5">
-        <v>0.1096736875647022</v>
+        <v>0.003816139183308866</v>
       </c>
       <c r="T5">
-        <v>0.1096736875647022</v>
+        <v>0.003816139183308867</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.36475346212913</v>
+        <v>24.47381466666667</v>
       </c>
       <c r="H6">
-        <v>1.36475346212913</v>
+        <v>73.42144400000001</v>
       </c>
       <c r="I6">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="J6">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>26.4124485641621</v>
+        <v>31.82741333333333</v>
       </c>
       <c r="N6">
-        <v>26.4124485641621</v>
+        <v>95.48223999999999</v>
       </c>
       <c r="O6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="P6">
-        <v>0.1042559285760563</v>
+        <v>0.114390792932228</v>
       </c>
       <c r="Q6">
-        <v>36.0464806212478</v>
+        <v>778.9382152393955</v>
       </c>
       <c r="R6">
-        <v>36.0464806212478</v>
+        <v>7010.44393715456</v>
       </c>
       <c r="S6">
-        <v>0.005563488879024572</v>
+        <v>0.09941724916836418</v>
       </c>
       <c r="T6">
-        <v>0.005563488879024572</v>
+        <v>0.09941724916836421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.36475346212913</v>
+        <v>24.47381466666667</v>
       </c>
       <c r="H7">
-        <v>1.36475346212913</v>
+        <v>73.42144400000001</v>
       </c>
       <c r="I7">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="J7">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>84.88458663385281</v>
+        <v>85.46317833333335</v>
       </c>
       <c r="N7">
-        <v>84.88458663385281</v>
+        <v>256.389535</v>
       </c>
       <c r="O7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="P7">
-        <v>0.3350587273197692</v>
+        <v>0.307162904935779</v>
       </c>
       <c r="Q7">
-        <v>115.8465334899507</v>
+        <v>2091.609987354283</v>
       </c>
       <c r="R7">
-        <v>115.8465334899507</v>
+        <v>18824.48988618854</v>
       </c>
       <c r="S7">
-        <v>0.01787999520721526</v>
+        <v>0.2669558473414118</v>
       </c>
       <c r="T7">
-        <v>0.01787999520721526</v>
+        <v>0.2669558473414118</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.36475346212913</v>
+        <v>24.47381466666667</v>
       </c>
       <c r="H8">
-        <v>1.36475346212913</v>
+        <v>73.42144400000001</v>
       </c>
       <c r="I8">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="J8">
-        <v>0.05336376506364262</v>
+        <v>0.86910184482474</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.694086112251</v>
+        <v>122.2478306666667</v>
       </c>
       <c r="N8">
-        <v>112.694086112251</v>
+        <v>366.743492</v>
       </c>
       <c r="O8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="P8">
-        <v>0.4448291329038125</v>
+        <v>0.4393704929064738</v>
       </c>
       <c r="Q8">
-        <v>153.7996441831729</v>
+        <v>2991.87075113805</v>
       </c>
       <c r="R8">
-        <v>153.7996441831729</v>
+        <v>26926.83676024245</v>
       </c>
       <c r="S8">
-        <v>0.02373775734174291</v>
+        <v>0.3818577059465717</v>
       </c>
       <c r="T8">
-        <v>0.02373775734174291</v>
+        <v>0.3818577059465718</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,309 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>24.47381466666667</v>
+      </c>
+      <c r="H9">
+        <v>73.42144400000001</v>
+      </c>
+      <c r="I9">
+        <v>0.86910184482474</v>
+      </c>
+      <c r="J9">
+        <v>0.86910184482474</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>38.69562533333333</v>
+      </c>
+      <c r="N9">
+        <v>116.086876</v>
+      </c>
+      <c r="O9">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="P9">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="Q9">
+        <v>947.0295628187716</v>
+      </c>
+      <c r="R9">
+        <v>8523.266065368944</v>
+      </c>
+      <c r="S9">
+        <v>0.1208710423683923</v>
+      </c>
+      <c r="T9">
+        <v>0.1208710423683923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.913391</v>
+      </c>
+      <c r="H10">
+        <v>8.740173</v>
+      </c>
+      <c r="I10">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J10">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>31.82741333333333</v>
+      </c>
+      <c r="N10">
+        <v>95.48223999999999</v>
+      </c>
+      <c r="O10">
+        <v>0.114390792932228</v>
+      </c>
+      <c r="P10">
+        <v>0.114390792932228</v>
+      </c>
+      <c r="Q10">
+        <v>92.72569955861333</v>
+      </c>
+      <c r="R10">
+        <v>834.5312960275199</v>
+      </c>
+      <c r="S10">
+        <v>0.01183474349694905</v>
+      </c>
+      <c r="T10">
+        <v>0.01183474349694906</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.36475346212913</v>
-      </c>
-      <c r="H9">
-        <v>1.36475346212913</v>
-      </c>
-      <c r="I9">
-        <v>0.05336376506364262</v>
-      </c>
-      <c r="J9">
-        <v>0.05336376506364262</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>29.3512921611543</v>
-      </c>
-      <c r="N9">
-        <v>29.3512921611543</v>
-      </c>
-      <c r="O9">
-        <v>0.115856211200362</v>
-      </c>
-      <c r="P9">
-        <v>0.115856211200362</v>
-      </c>
-      <c r="Q9">
-        <v>40.05727759489893</v>
-      </c>
-      <c r="R9">
-        <v>40.05727759489893</v>
-      </c>
-      <c r="S9">
-        <v>0.00618252363565988</v>
-      </c>
-      <c r="T9">
-        <v>0.00618252363565988</v>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>2.913391</v>
+      </c>
+      <c r="H11">
+        <v>8.740173</v>
+      </c>
+      <c r="I11">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J11">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>85.46317833333335</v>
+      </c>
+      <c r="N11">
+        <v>256.389535</v>
+      </c>
+      <c r="O11">
+        <v>0.307162904935779</v>
+      </c>
+      <c r="P11">
+        <v>0.307162904935779</v>
+      </c>
+      <c r="Q11">
+        <v>248.9876545877284</v>
+      </c>
+      <c r="R11">
+        <v>2240.888891289555</v>
+      </c>
+      <c r="S11">
+        <v>0.03177873059981671</v>
+      </c>
+      <c r="T11">
+        <v>0.03177873059981671</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>2.913391</v>
+      </c>
+      <c r="H12">
+        <v>8.740173</v>
+      </c>
+      <c r="I12">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J12">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>122.2478306666667</v>
+      </c>
+      <c r="N12">
+        <v>366.743492</v>
+      </c>
+      <c r="O12">
+        <v>0.4393704929064738</v>
+      </c>
+      <c r="P12">
+        <v>0.4393704929064738</v>
+      </c>
+      <c r="Q12">
+        <v>356.1557296337907</v>
+      </c>
+      <c r="R12">
+        <v>3205.401566704116</v>
+      </c>
+      <c r="S12">
+        <v>0.04545677978433883</v>
+      </c>
+      <c r="T12">
+        <v>0.04545677978433883</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>2.913391</v>
+      </c>
+      <c r="H13">
+        <v>8.740173</v>
+      </c>
+      <c r="I13">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="J13">
+        <v>0.1034588815549226</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>38.69562533333333</v>
+      </c>
+      <c r="N13">
+        <v>116.086876</v>
+      </c>
+      <c r="O13">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="P13">
+        <v>0.1390758092255191</v>
+      </c>
+      <c r="Q13">
+        <v>112.7354865855053</v>
+      </c>
+      <c r="R13">
+        <v>1014.619379269548</v>
+      </c>
+      <c r="S13">
+        <v>0.01438862767381799</v>
+      </c>
+      <c r="T13">
+        <v>0.01438862767381799</v>
       </c>
     </row>
   </sheetData>
